--- a/Big Tech/Meta Platforms.xlsx
+++ b/Big Tech/Meta Platforms.xlsx
@@ -5,30 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9A1040-9186-AE4C-B6C0-50481FE24AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7C9E43-FD2C-4F40-8FB8-E8640B14F3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$N$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$N$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$B$19:$N$19</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$B$106:$N$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -329,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Meta Platforms</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -872,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,18 +955,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,12 +977,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -986,10 +988,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1011,10 +1009,26 @@
     <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2163,6 +2177,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1slm7&amp;q=XNAS%3aMETA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>Meta Platforms, Inc. (XNAS:META)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1slm7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>236.86</v>
+    <v>88.09</v>
+    <v>1.1917</v>
+    <v>4.0999999999999996</v>
+    <v>1.9726999999999998E-2</v>
+    <v>0.06</v>
+    <v>2.831E-4</v>
+    <v>USD</v>
+    <v>Meta Platforms, Inc. builds technologies that help people connect, find communities, and grow businesses. The Company's products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) headsets, and wearables. The Company operates through two segments: Family of Apps (FoA) and Reality Labs (RL). FoA segment includes Facebook, Instagram, Messenger, WhatsApp, and other services. RL segment includes augmented and VR-related consumer hardware, software, and content. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram is a place where people can express themselves through photos, videos, and private messaging, and connect with and shop from their favorite businesses. Its RL products include Meta Quest virtual reality devices, as well as software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
+    <v>86482</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1601 Willow Rd, MENLO PARK, CA, 94025 US</v>
+    <v>212.17</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45016.999995856248</v>
+    <v>0</v>
+    <v>206.77</v>
+    <v>549484000000</v>
+    <v>Meta Platforms, Inc.</v>
+    <v>Meta Platforms, Inc.</v>
+    <v>207.24</v>
+    <v>24.242999999999999</v>
+    <v>207.84</v>
+    <v>211.94</v>
+    <v>212</v>
+    <v>2592640000</v>
+    <v>META</v>
+    <v>Meta Platforms, Inc. (XNAS:META)</v>
+    <v>25440273</v>
+    <v>30005195</v>
+    <v>2004</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2463,10 +2917,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X138" sqref="X138"/>
+      <selection pane="bottomRight" activeCell="P115" sqref="P115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2477,8 +2931,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2010</v>
@@ -2649,21 +3103,21 @@
         <v>165000000000</v>
       </c>
       <c r="T3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="V3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="W3" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2679,7 +3133,7 @@
         <v>0.5468657889565729</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:V4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:S4" si="0">(F3/E3)-1</f>
         <v>0.58358739837398366</v>
       </c>
       <c r="G4" s="15">
@@ -2849,16 +3303,16 @@
         <v>91360000000</v>
       </c>
       <c r="T6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="V6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="W6" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2967,14 +3421,14 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
         <v>7.29483282674772E-2</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:Q9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:N9" si="1">C8/C3</f>
         <v>0.10455402856372946</v>
       </c>
       <c r="D9" s="15">
@@ -3022,16 +3476,16 @@
         <v>0.30304693462768739</v>
       </c>
       <c r="T9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="V9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="W9" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="W9" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3182,28 +3636,28 @@
         <v>27078000000</v>
       </c>
       <c r="T12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="U12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="V12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="W12" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>0.15450861195542046</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:Q13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:N13" si="2">C12/C3</f>
         <v>0.19051468606844515</v>
       </c>
       <c r="D13" s="15">
@@ -3355,16 +3809,16 @@
         <v>62416000000</v>
       </c>
       <c r="T15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="U15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="V15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="V15" s="20" t="s">
+      <c r="W15" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3416,15 +3870,15 @@
       </c>
       <c r="U16" s="29">
         <f>V101/N3</f>
-        <v>4.5325679836033244</v>
+        <v>4.7121920263444501</v>
       </c>
       <c r="V16" s="29">
         <f>V101/N28</f>
-        <v>22.781819827586208</v>
+        <v>23.684655172413795</v>
       </c>
       <c r="W16" s="30">
         <f>V101/N106</f>
-        <v>27.753529720646927</v>
+        <v>28.853392144507456</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3515,7 +3969,7 @@
         <v>8686000000</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3568,7 +4022,7 @@
     </row>
     <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3584,7 +4038,7 @@
         <v>2.2001675041876045</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:Q20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:N20" si="3">(F19/E19)-1</f>
         <v>0.61633080345459312</v>
       </c>
       <c r="G20" s="15">
@@ -3976,7 +4430,7 @@
     </row>
     <row r="29" spans="1:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3992,7 +4446,7 @@
         <v>27.30188679245283</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Q29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:N29" si="4">(F28/E28)-1</f>
         <v>0.96</v>
       </c>
       <c r="G29" s="15">
@@ -4252,7 +4706,7 @@
     </row>
     <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -4260,7 +4714,7 @@
         <v>-1.228293096145701E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:Q35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:N35" si="5">(D34-C34)/C34</f>
         <v>-7.1183533447684397E-2</v>
       </c>
       <c r="E35" s="23">
@@ -6242,10 +6696,10 @@
     </row>
     <row r="80" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:Q80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:N80" si="6">B79/B3</f>
         <v>1.0131712259371834E-2</v>
       </c>
       <c r="C80" s="15">
@@ -6428,10 +6882,10 @@
       <c r="N83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U83" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="V83" s="33"/>
+      <c r="U83" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="V83" s="59"/>
     </row>
     <row r="84" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6476,10 +6930,10 @@
       <c r="N84" s="1">
         <v>210000000</v>
       </c>
-      <c r="U84" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="V84" s="35"/>
+      <c r="U84" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="V84" s="61"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6524,10 +6978,10 @@
       <c r="N85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U85" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="V85" s="59">
+      <c r="U85" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="V85" s="51">
         <f>N17</f>
         <v>276000000</v>
       </c>
@@ -6575,10 +7029,10 @@
       <c r="N86" s="1">
         <v>4200000000</v>
       </c>
-      <c r="U86" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="V86" s="59">
+      <c r="U86" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="V86" s="51">
         <f>N56</f>
         <v>1367000000</v>
       </c>
@@ -6626,10 +7080,10 @@
       <c r="N87" s="10">
         <v>50475000000</v>
       </c>
-      <c r="U87" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="V87" s="59">
+      <c r="U87" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="V87" s="51">
         <f>N61</f>
         <v>25224000000</v>
       </c>
@@ -6677,20 +7131,20 @@
       <c r="N88" s="1">
         <v>-31431000000</v>
       </c>
-      <c r="U88" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="V88" s="61">
+      <c r="U88" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="V88" s="53">
         <f>V85/(V86+V87)</f>
         <v>1.0379451694182243E-2</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:Q89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:N89" si="7">(-1*B88)/B3</f>
         <v>0.14842958459979735</v>
       </c>
       <c r="C89" s="15">
@@ -6741,10 +7195,10 @@
         <f t="shared" si="7"/>
         <v>0.26954180209074774</v>
       </c>
-      <c r="U89" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="V89" s="59">
+      <c r="U89" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="V89" s="51">
         <f>N27</f>
         <v>5619000000</v>
       </c>
@@ -6792,10 +7246,10 @@
       <c r="N90" s="1">
         <v>-1312000000</v>
       </c>
-      <c r="U90" s="58" t="s">
+      <c r="U90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="V90" s="59">
+      <c r="V90" s="51">
         <f>N25</f>
         <v>28819000000</v>
       </c>
@@ -6843,10 +7297,10 @@
       <c r="N91" s="1">
         <v>-9631000000</v>
       </c>
-      <c r="U91" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="V91" s="61">
+      <c r="U91" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="V91" s="53">
         <f>V89/V90</f>
         <v>0.19497553697213643</v>
       </c>
@@ -6894,10 +7348,10 @@
       <c r="N92" s="1">
         <v>13158000000</v>
       </c>
-      <c r="U92" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="V92" s="63">
+      <c r="U92" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="V92" s="55">
         <f>V88*(1-V91)</f>
         <v>8.3557125266327092E-3</v>
       </c>
@@ -6945,10 +7399,10 @@
       <c r="N93" s="1">
         <v>246000000</v>
       </c>
-      <c r="U93" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="V93" s="35"/>
+      <c r="U93" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="V93" s="61"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6993,10 +7447,10 @@
       <c r="N94" s="10">
         <v>-28970000000</v>
       </c>
-      <c r="U94" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="V94" s="64">
+      <c r="U94" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="V94" s="56">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7043,11 +7497,12 @@
       <c r="N95" s="1">
         <v>-850000000</v>
       </c>
-      <c r="U95" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="V95" s="67">
-        <v>1.18</v>
+      <c r="U95" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="V95" s="64" cm="1">
+        <f t="array" ref="V95">_FV(A1,"Beta")</f>
+        <v>1.1917</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7093,10 +7548,10 @@
       <c r="N96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U96" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="V96" s="64">
+      <c r="U96" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="V96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7143,12 +7598,12 @@
       <c r="N97" s="1">
         <v>-27956000000</v>
       </c>
-      <c r="U97" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="V97" s="63">
+      <c r="U97" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="V97" s="55">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>9.1748999999999997E-2</v>
+        <v>9.2252685000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7194,10 +7649,10 @@
       <c r="N98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U98" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="V98" s="35"/>
+      <c r="U98" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="V98" s="61"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7242,10 +7697,10 @@
       <c r="N99" s="1">
         <v>6670000000</v>
       </c>
-      <c r="U99" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="V99" s="59">
+      <c r="U99" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="V99" s="51">
         <f>V86+V87</f>
         <v>26591000000</v>
       </c>
@@ -7293,12 +7748,12 @@
       <c r="N100" s="10">
         <v>-22136000000</v>
       </c>
-      <c r="U100" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="V100" s="61">
+      <c r="U100" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="V100" s="53">
         <f>V99/V103</f>
-        <v>4.7900559080640719E-2</v>
+        <v>4.6158920279477496E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7344,12 +7799,12 @@
       <c r="N101" s="1">
         <v>-638000000</v>
       </c>
-      <c r="U101" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="V101" s="49">
-        <f>P116*N34</f>
-        <v>528538220000.00006</v>
+      <c r="U101" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="V101" s="43" cm="1">
+        <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
+        <v>549484000000</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7395,12 +7850,12 @@
       <c r="N102" s="10">
         <v>-1269000000</v>
       </c>
-      <c r="U102" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="V102" s="61">
+      <c r="U102" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="V102" s="53">
         <f>V101/V103</f>
-        <v>0.95209944091935939</v>
+        <v>0.95384107972052246</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7446,12 +7901,12 @@
       <c r="N103" s="1">
         <v>16865000000</v>
       </c>
-      <c r="U103" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="V103" s="65">
+      <c r="U103" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="V103" s="57">
         <f>V99+V101</f>
-        <v>555129220000</v>
+        <v>576075000000</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7497,14 +7952,14 @@
       <c r="N104" s="11">
         <v>15596000000</v>
       </c>
-      <c r="U104" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="V104" s="35"/>
+      <c r="U104" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="V104" s="61"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -7528,7 +7983,7 @@
         <v>0.67567567567567566</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:Q105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:N105" si="8">(H106/G106)-1</f>
         <v>0.91194865042791307</v>
       </c>
       <c r="I105" s="15">
@@ -7562,11 +8017,11 @@
       <c r="S105" s="15"/>
       <c r="T105" s="15"/>
       <c r="U105" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V105" s="25">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>8.775441490645311E-2</v>
+        <v>8.838009133591232E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7612,33 +8067,33 @@
       <c r="N106" s="1">
         <v>19044000000</v>
       </c>
-      <c r="O106" s="36">
+      <c r="O106" s="32">
         <f>N106*(1+$V$106)</f>
         <v>20417182804.008099</v>
       </c>
-      <c r="P106" s="36">
+      <c r="P106" s="32">
         <f t="shared" ref="P106:S106" si="9">O106*(1+$V$106)</f>
         <v>21889380048.954208</v>
       </c>
-      <c r="Q106" s="36">
+      <c r="Q106" s="32">
         <f t="shared" si="9"/>
         <v>23467731250.047562</v>
       </c>
-      <c r="R106" s="36">
+      <c r="R106" s="32">
         <f t="shared" si="9"/>
         <v>25159890722.933971</v>
       </c>
-      <c r="S106" s="36">
+      <c r="S106" s="32">
         <f t="shared" si="9"/>
         <v>26974064703.791763</v>
       </c>
-      <c r="T106" s="37" t="s">
+      <c r="T106" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="U106" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="U106" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="V106" s="39">
+      <c r="V106" s="35">
         <f>(SUM(O4:S4)/5)</f>
         <v>7.2105797311914355E-2</v>
       </c>
@@ -7658,150 +8113,151 @@
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
-      <c r="O107" s="37"/>
-      <c r="P107" s="37"/>
-      <c r="Q107" s="37"/>
-      <c r="R107" s="37"/>
-      <c r="S107" s="40">
+      <c r="O107" s="33"/>
+      <c r="P107" s="33"/>
+      <c r="Q107" s="33"/>
+      <c r="R107" s="33"/>
+      <c r="S107" s="36">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>440581214287.49762</v>
-      </c>
-      <c r="T107" s="41" t="s">
+        <v>436231878790.62671</v>
+      </c>
+      <c r="T107" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="U107" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="U107" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="V107" s="43">
+      <c r="V107" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O108" s="40">
+      <c r="O108" s="36">
         <f t="shared" ref="O108:Q108" si="10">O107+O106</f>
         <v>20417182804.008099</v>
       </c>
-      <c r="P108" s="40">
+      <c r="P108" s="36">
         <f t="shared" si="10"/>
         <v>21889380048.954208</v>
       </c>
-      <c r="Q108" s="40">
+      <c r="Q108" s="36">
         <f t="shared" si="10"/>
         <v>23467731250.047562</v>
       </c>
-      <c r="R108" s="40">
+      <c r="R108" s="36">
         <f>R107+R106</f>
         <v>25159890722.933971</v>
       </c>
-      <c r="S108" s="40">
+      <c r="S108" s="36">
         <f>S107+S106</f>
-        <v>467555278991.28937</v>
-      </c>
-      <c r="T108" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="U108" s="44" t="s">
+        <v>463205943494.41846</v>
+      </c>
+      <c r="T108" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="U108" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="V108" s="41">
+        <f>V105</f>
+        <v>8.838009133591232E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="O109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="V108" s="45">
-        <f>V105</f>
-        <v>8.775441490645311E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O109" s="46" t="s">
+      <c r="P109" s="63"/>
+    </row>
+    <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="O110" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P109" s="47"/>
-    </row>
-    <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O110" s="48" t="s">
+      <c r="P110" s="43">
+        <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
+        <v>376669796593.11591</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="O111" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="P110" s="49">
-        <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>380503929806.94708</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O111" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="P111" s="49">
+      <c r="P111" s="43">
         <f>N40</f>
         <v>40738000000</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O112" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="P112" s="49">
+      <c r="O112" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="P112" s="43">
         <f>V99</f>
         <v>26591000000</v>
       </c>
     </row>
     <row r="113" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O113" s="48" t="s">
+      <c r="O113" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="P113" s="43">
+        <f>P110+P111-P112</f>
+        <v>390816796593.11591</v>
+      </c>
+    </row>
+    <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O114" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="P113" s="49">
-        <f>P110+P111-P112</f>
-        <v>394650929806.94708</v>
-      </c>
-    </row>
-    <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O114" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="P114" s="50">
+      <c r="P114" s="44">
         <f>N34*(1+(5*T16))</f>
         <v>2464144553.2456627</v>
       </c>
     </row>
     <row r="115" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O115" s="51" t="s">
+      <c r="O115" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="P115" s="46">
+        <f>P113/P114</f>
+        <v>158.60140837855849</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O116" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="P115" s="52">
-        <f>P113/P114</f>
-        <v>160.15737765348638</v>
-      </c>
-    </row>
-    <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O116" s="53" t="s">
+      <c r="P116" s="65" cm="1">
+        <f t="array" ref="P116">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O117" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="P116" s="54">
-        <v>195.61</v>
-      </c>
-    </row>
-    <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O117" s="55" t="s">
+      <c r="P117" s="48">
+        <f>P115/P116-1</f>
+        <v>-0.25188014915774293</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O118" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="P117" s="56">
-        <f>P115/P116-1</f>
-        <v>-0.18124135957524479</v>
-      </c>
-    </row>
-    <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O118" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="P118" s="57" t="str">
+      <c r="P118" s="49" t="str">
         <f>IF(P115&gt;P116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="O109:P109"/>
     <mergeCell ref="U83:V83"/>
     <mergeCell ref="U84:V84"/>
     <mergeCell ref="U93:V93"/>
     <mergeCell ref="U98:V98"/>
     <mergeCell ref="U104:V104"/>
-    <mergeCell ref="O109:P109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/META" display="ROIC.AI | META" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Big Tech/Meta Platforms.xlsx
+++ b/Big Tech/Meta Platforms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7C9E43-FD2C-4F40-8FB8-E8640B14F3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09685488-A670-9943-B482-4F8A8B8249F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -987,7 +988,6 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1009,6 +1009,14 @@
     <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,14 +1029,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2297,13 +2298,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>236.86</v>
+    <v>228.98990000000001</v>
     <v>88.09</v>
-    <v>1.1917</v>
-    <v>4.0999999999999996</v>
-    <v>1.9726999999999998E-2</v>
-    <v>0.06</v>
-    <v>2.831E-4</v>
+    <v>1.1931</v>
+    <v>4.62</v>
+    <v>2.1846000000000001E-2</v>
+    <v>-0.09</v>
+    <v>-4.1649999999999999E-4</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technologies that help people connect, find communities, and grow businesses. The Company's products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) headsets, and wearables. The Company operates through two segments: Family of Apps (FoA) and Reality Labs (RL). FoA segment includes Facebook, Instagram, Messenger, WhatsApp, and other services. RL segment includes augmented and VR-related consumer hardware, software, and content. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram is a place where people can express themselves through photos, videos, and private messaging, and connect with and shop from their favorite businesses. Its RL products include Meta Quest virtual reality devices, as well as software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
     <v>86482</v>
@@ -2311,25 +2312,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1601 Willow Rd, MENLO PARK, CA, 94025 US</v>
-    <v>212.17</v>
+    <v>216.94</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45016.999995856248</v>
+    <v>45022.999999247659</v>
     <v>0</v>
-    <v>206.77</v>
-    <v>549484000000</v>
+    <v>208.65</v>
+    <v>560269400000</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>207.24</v>
-    <v>24.242999999999999</v>
-    <v>207.84</v>
-    <v>211.94</v>
-    <v>212</v>
+    <v>209.25</v>
+    <v>24.6676</v>
+    <v>211.48</v>
+    <v>216.1</v>
+    <v>216.01</v>
     <v>2592640000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>25440273</v>
-    <v>30005195</v>
+    <v>26104411</v>
+    <v>28711997</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2917,10 +2918,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P115" sqref="P115"/>
+      <selection pane="bottomRight" activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3870,15 +3871,15 @@
       </c>
       <c r="U16" s="29">
         <f>V101/N3</f>
-        <v>4.7121920263444501</v>
+        <v>4.8046840295345987</v>
       </c>
       <c r="V16" s="29">
         <f>V101/N28</f>
-        <v>23.684655172413795</v>
+        <v>24.149543103448277</v>
       </c>
       <c r="W16" s="30">
         <f>V101/N106</f>
-        <v>28.853392144507456</v>
+        <v>29.419733249317371</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6882,10 +6883,10 @@
       <c r="N83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U83" s="58" t="s">
+      <c r="U83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="V83" s="59"/>
+      <c r="V83" s="62"/>
     </row>
     <row r="84" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6930,10 +6931,10 @@
       <c r="N84" s="1">
         <v>210000000</v>
       </c>
-      <c r="U84" s="60" t="s">
+      <c r="U84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="V84" s="61"/>
+      <c r="V84" s="64"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6978,10 +6979,10 @@
       <c r="N85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U85" s="50" t="s">
+      <c r="U85" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="V85" s="51">
+      <c r="V85" s="50">
         <f>N17</f>
         <v>276000000</v>
       </c>
@@ -7029,10 +7030,10 @@
       <c r="N86" s="1">
         <v>4200000000</v>
       </c>
-      <c r="U86" s="50" t="s">
+      <c r="U86" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="V86" s="51">
+      <c r="V86" s="50">
         <f>N56</f>
         <v>1367000000</v>
       </c>
@@ -7080,10 +7081,10 @@
       <c r="N87" s="10">
         <v>50475000000</v>
       </c>
-      <c r="U87" s="50" t="s">
+      <c r="U87" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="V87" s="51">
+      <c r="V87" s="50">
         <f>N61</f>
         <v>25224000000</v>
       </c>
@@ -7131,10 +7132,10 @@
       <c r="N88" s="1">
         <v>-31431000000</v>
       </c>
-      <c r="U88" s="52" t="s">
+      <c r="U88" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="V88" s="53">
+      <c r="V88" s="52">
         <f>V85/(V86+V87)</f>
         <v>1.0379451694182243E-2</v>
       </c>
@@ -7195,10 +7196,10 @@
         <f t="shared" si="7"/>
         <v>0.26954180209074774</v>
       </c>
-      <c r="U89" s="50" t="s">
+      <c r="U89" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="V89" s="51">
+      <c r="V89" s="50">
         <f>N27</f>
         <v>5619000000</v>
       </c>
@@ -7246,10 +7247,10 @@
       <c r="N90" s="1">
         <v>-1312000000</v>
       </c>
-      <c r="U90" s="50" t="s">
+      <c r="U90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="V90" s="51">
+      <c r="V90" s="50">
         <f>N25</f>
         <v>28819000000</v>
       </c>
@@ -7297,10 +7298,10 @@
       <c r="N91" s="1">
         <v>-9631000000</v>
       </c>
-      <c r="U91" s="52" t="s">
+      <c r="U91" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="V91" s="53">
+      <c r="V91" s="52">
         <f>V89/V90</f>
         <v>0.19497553697213643</v>
       </c>
@@ -7348,10 +7349,10 @@
       <c r="N92" s="1">
         <v>13158000000</v>
       </c>
-      <c r="U92" s="54" t="s">
+      <c r="U92" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="V92" s="55">
+      <c r="V92" s="54">
         <f>V88*(1-V91)</f>
         <v>8.3557125266327092E-3</v>
       </c>
@@ -7399,10 +7400,10 @@
       <c r="N93" s="1">
         <v>246000000</v>
       </c>
-      <c r="U93" s="60" t="s">
+      <c r="U93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="V93" s="61"/>
+      <c r="V93" s="64"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7447,10 +7448,10 @@
       <c r="N94" s="10">
         <v>-28970000000</v>
       </c>
-      <c r="U94" s="50" t="s">
+      <c r="U94" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="V94" s="56">
+      <c r="V94" s="55">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7497,12 +7498,12 @@
       <c r="N95" s="1">
         <v>-850000000</v>
       </c>
-      <c r="U95" s="50" t="s">
+      <c r="U95" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="V95" s="64" cm="1">
+      <c r="V95" s="57" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>1.1917</v>
+        <v>1.1931</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7548,10 +7549,10 @@
       <c r="N96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U96" s="50" t="s">
+      <c r="U96" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="V96" s="56">
+      <c r="V96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7598,12 +7599,12 @@
       <c r="N97" s="1">
         <v>-27956000000</v>
       </c>
-      <c r="U97" s="54" t="s">
+      <c r="U97" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="V97" s="55">
+      <c r="V97" s="54">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>9.2252685000000001E-2</v>
+        <v>9.2312955000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7649,10 +7650,10 @@
       <c r="N98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U98" s="60" t="s">
+      <c r="U98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="V98" s="61"/>
+      <c r="V98" s="64"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7697,10 +7698,10 @@
       <c r="N99" s="1">
         <v>6670000000</v>
       </c>
-      <c r="U99" s="50" t="s">
+      <c r="U99" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="V99" s="51">
+      <c r="V99" s="50">
         <f>V86+V87</f>
         <v>26591000000</v>
       </c>
@@ -7748,12 +7749,12 @@
       <c r="N100" s="10">
         <v>-22136000000</v>
       </c>
-      <c r="U100" s="52" t="s">
+      <c r="U100" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="V100" s="53">
+      <c r="V100" s="52">
         <f>V99/V103</f>
-        <v>4.6158920279477496E-2</v>
+        <v>4.5310605384176542E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7799,12 +7800,12 @@
       <c r="N101" s="1">
         <v>-638000000</v>
       </c>
-      <c r="U101" s="50" t="s">
+      <c r="U101" s="49" t="s">
         <v>142</v>
       </c>
       <c r="V101" s="43" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>549484000000</v>
+        <v>560269400000</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7850,12 +7851,12 @@
       <c r="N102" s="10">
         <v>-1269000000</v>
       </c>
-      <c r="U102" s="52" t="s">
+      <c r="U102" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="V102" s="53">
+      <c r="V102" s="52">
         <f>V101/V103</f>
-        <v>0.95384107972052246</v>
+        <v>0.95468939461582347</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7901,12 +7902,12 @@
       <c r="N103" s="1">
         <v>16865000000</v>
       </c>
-      <c r="U103" s="54" t="s">
+      <c r="U103" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="V103" s="57">
+      <c r="V103" s="56">
         <f>V99+V101</f>
-        <v>576075000000</v>
+        <v>586860400000</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7952,10 +7953,10 @@
       <c r="N104" s="11">
         <v>15596000000</v>
       </c>
-      <c r="U104" s="60" t="s">
+      <c r="U104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="V104" s="61"/>
+      <c r="V104" s="64"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8021,7 +8022,7 @@
       </c>
       <c r="V105" s="25">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>8.838009133591232E-2</v>
+        <v>8.850880151714563E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8119,7 +8120,7 @@
       <c r="R107" s="33"/>
       <c r="S107" s="36">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>436231878790.62671</v>
+        <v>435347788982.00812</v>
       </c>
       <c r="T107" s="37" t="s">
         <v>148</v>
@@ -8150,7 +8151,7 @@
       </c>
       <c r="S108" s="36">
         <f>S107+S106</f>
-        <v>463205943494.41846</v>
+        <v>462321853685.79987</v>
       </c>
       <c r="T108" s="37" t="s">
         <v>144</v>
@@ -8160,14 +8161,14 @@
       </c>
       <c r="V108" s="41">
         <f>V105</f>
-        <v>8.838009133591232E-2</v>
+        <v>8.850880151714563E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O109" s="62" t="s">
+      <c r="O109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="P109" s="63"/>
+      <c r="P109" s="60"/>
     </row>
     <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="O110" s="42" t="s">
@@ -8175,7 +8176,7 @@
       </c>
       <c r="P110" s="43">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>376669796593.11591</v>
+        <v>375890454067.47589</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8202,7 +8203,7 @@
       </c>
       <c r="P113" s="43">
         <f>P110+P111-P112</f>
-        <v>390816796593.11591</v>
+        <v>390037454067.47589</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8218,34 +8219,34 @@
       <c r="O115" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="P115" s="46">
+      <c r="P115" s="65">
         <f>P113/P114</f>
-        <v>158.60140837855849</v>
+        <v>158.28513532363016</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
       <c r="O116" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="P116" s="65" cm="1">
+      <c r="P116" s="58" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>212</v>
+        <v>216.01</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O117" s="47" t="s">
+      <c r="O117" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="P117" s="48">
+      <c r="P117" s="47">
         <f>P115/P116-1</f>
-        <v>-0.25188014915774293</v>
+        <v>-0.26723237200300831</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O118" s="47" t="s">
+      <c r="O118" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="P118" s="49" t="str">
+      <c r="P118" s="48" t="str">
         <f>IF(P115&gt;P116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
